--- a/Results/APFAIRnessResults_01_04_2021.xlsx
+++ b/Results/APFAIRnessResults_01_04_2021.xlsx
@@ -915,7 +915,107 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="124">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -998,11 +1098,81 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1048,11 +1218,931 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1345,7 +2435,7 @@
   <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="W154" sqref="W154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11873,28 +12963,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>$E$151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>$F$151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>$H$151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+      <formula>$J$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>$K$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+      <formula>$L$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+      <formula>$M$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>$O$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>$P$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>$Q$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>$S$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>$T$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>$U$151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$J$151</formula>
+      <formula>$V$151</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -11907,7 +13047,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{CDA3960B-BA31-4FAA-BEAD-ADF53E78CE14}">
+          <x14:cfRule type="iconSet" priority="36" id="{CDA3960B-BA31-4FAA-BEAD-ADF53E78CE14}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11923,7 +13063,7 @@
           <xm:sqref>D1:D150 D153:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{F574E27D-98E2-4891-8221-AF1C2277B05D}">
+          <x14:cfRule type="iconSet" priority="35" id="{F574E27D-98E2-4891-8221-AF1C2277B05D}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11939,7 +13079,7 @@
           <xm:sqref>I1:I150 I153:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{FD8CDC3C-4D92-4DDB-9E93-4749ABD76661}">
+          <x14:cfRule type="iconSet" priority="34" id="{FD8CDC3C-4D92-4DDB-9E93-4749ABD76661}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11955,7 +13095,7 @@
           <xm:sqref>N1:N150 N153:N1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{0932B843-6989-4FC8-82EA-1E254FBA4234}">
+          <x14:cfRule type="iconSet" priority="33" id="{0932B843-6989-4FC8-82EA-1E254FBA4234}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11971,7 +13111,7 @@
           <xm:sqref>B1:B150 B153:B1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{D506DE71-8FBA-4A65-A97E-55F161E82CCA}">
+          <x14:cfRule type="iconSet" priority="21" id="{D506DE71-8FBA-4A65-A97E-55F161E82CCA}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
